--- a/content/Book Ten 1st Half 21-30.xlsx
+++ b/content/Book Ten 1st Half 21-30.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E7DD80-455E-4428-9B94-6121947080F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA01943-E264-49A4-B67E-22851AFFCC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="923" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 10-21" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6938" uniqueCount="4168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6955" uniqueCount="4178">
   <si>
     <t>श्रीमद्भागवतमहापुराणम्</t>
   </si>
@@ -12528,25 +12528,47 @@
     <t>3-PS</t>
   </si>
   <si>
-    <t>SHLOKA 26 MISSING</t>
+    <t>अस्वर्ग्यमयशस्यं च फल्गु कृच्छ्रं भयावहम् ।</t>
+  </si>
+  <si>
+    <t xml:space="preserve">जुगुप्सितं च सर्वत्र औपपत्यं कुलस्त्रिया: ॥२६॥	</t>
+  </si>
+  <si>
+    <t>अस्वर्ग्यम्-अयशस्यम् च</t>
+  </si>
+  <si>
+    <t>फल्गु कृच्छ्म् भयावहम्</t>
+  </si>
+  <si>
+    <t>जुगुप्सितम् च सर्वत्र</t>
+  </si>
+  <si>
+    <t>औपपत्यम् कुलस्त्रिया:</t>
+  </si>
+  <si>
+    <t>not fit for heaven, scandelous,</t>
+  </si>
+  <si>
+    <t>mean, a source of trouble, fearful,</t>
+  </si>
+  <si>
+    <t>hateful and is everyshere</t>
+  </si>
+  <si>
+    <t>infidality of anoble pedigree woman</t>
+  </si>
+  <si>
+    <t>Infidality of a woman of a noble pedigree is not fit for heaven, is scandelous, mean, a source of trouble, fearful, and is hateful everywhere.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -12572,7 +12594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -12595,7 +12617,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12936,9 +12957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E189"/>
   <sheetViews>
-    <sheetView topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E189" sqref="E189"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="92" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -48915,9 +48934,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E402"/>
+  <dimension ref="A1:E408"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="92" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -48930,31 +48949,40 @@
     <col min="7" max="16384" width="92" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D1" s="10" t="s">
-        <v>4167</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4155</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4156</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4157</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4158</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4159</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4155</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4156</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4157</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4158</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4159</v>
+        <v>4160</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4160</v>
+        <v>4161</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -48963,12 +48991,12 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4161</v>
+        <v>4162</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -48977,38 +49005,38 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>4162</v>
+        <v>4166</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>1244</v>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>4166</v>
+        <v>4164</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>4</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -49019,24 +49047,27 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1246</v>
+        <v>3480</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>3481</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -49047,13 +49078,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>3480</v>
+        <v>1247</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>3481</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -49064,13 +49095,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1247</v>
+        <v>3482</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1249</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -49081,44 +49112,41 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>3482</v>
+        <v>1248</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>3483</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
       </c>
       <c r="C12" s="2">
-        <v>4</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>1248</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="B13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>1253</v>
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>1251</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -49129,24 +49157,27 @@
         <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
       </c>
       <c r="C15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>1252</v>
+        <v>3484</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>3486</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -49157,13 +49188,13 @@
         <v>2</v>
       </c>
       <c r="C16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>3484</v>
+        <v>3485</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -49174,13 +49205,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>3485</v>
+        <v>1254</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>3487</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -49191,78 +49222,75 @@
         <v>2</v>
       </c>
       <c r="C18" s="2">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>3488</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>3489</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>4163</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>3490</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>3491</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>4163</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>4165</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>3784</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>4164</v>
+      </c>
+      <c r="B22" s="2">
         <v>3</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>1254</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>4163</v>
-      </c>
-      <c r="B19" s="2">
-        <v>2</v>
-      </c>
-      <c r="C19" s="2">
-        <v>4</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>3488</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>3489</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>4163</v>
-      </c>
-      <c r="B20" s="2">
-        <v>2</v>
-      </c>
-      <c r="C20" s="2">
-        <v>5</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>3490</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>3491</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>4163</v>
-      </c>
-      <c r="B21" s="2">
-        <v>2</v>
-      </c>
-      <c r="C21" s="2">
-        <v>6</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>1255</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>4165</v>
-      </c>
-      <c r="B22" s="2">
-        <v>2</v>
-      </c>
       <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>3784</v>
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>1258</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -49273,24 +49301,27 @@
         <v>3</v>
       </c>
       <c r="C23" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B24" s="2">
         <v>3</v>
       </c>
       <c r="C24" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1259</v>
+        <v>1260</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>1264</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -49301,13 +49332,13 @@
         <v>3</v>
       </c>
       <c r="C25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -49318,13 +49349,13 @@
         <v>3</v>
       </c>
       <c r="C26" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1261</v>
+        <v>1266</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -49335,13 +49366,13 @@
         <v>3</v>
       </c>
       <c r="C27" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -49352,13 +49383,13 @@
         <v>3</v>
       </c>
       <c r="C28" s="2">
-        <v>4</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>1262</v>
+        <v>5</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>3492</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1268</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -49369,13 +49400,13 @@
         <v>3</v>
       </c>
       <c r="C29" s="2">
-        <v>5</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>3492</v>
+        <v>6</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>3494</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>3493</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -49386,44 +49417,41 @@
         <v>3</v>
       </c>
       <c r="C30" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>3494</v>
+        <v>1263</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B31" s="2">
         <v>3</v>
       </c>
       <c r="C31" s="2">
-        <v>7</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>1263</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="B32" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" s="2">
-        <v>0</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>1270</v>
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>1272</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -49434,24 +49462,27 @@
         <v>4</v>
       </c>
       <c r="C33" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B34" s="2">
         <v>4</v>
       </c>
       <c r="C34" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>1271</v>
+        <v>3496</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>3498</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -49462,13 +49493,13 @@
         <v>4</v>
       </c>
       <c r="C35" s="2">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>3496</v>
+        <v>2</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>3497</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>3498</v>
+        <v>3785</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -49479,13 +49510,13 @@
         <v>4</v>
       </c>
       <c r="C36" s="2">
-        <v>2</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>3497</v>
+        <v>3</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>1273</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>3785</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -49496,13 +49527,13 @@
         <v>4</v>
       </c>
       <c r="C37" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>1273</v>
+        <v>3499</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>1275</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -49513,13 +49544,13 @@
         <v>4</v>
       </c>
       <c r="C38" s="2">
-        <v>4</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>3499</v>
+        <v>5</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>3501</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>3500</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -49530,44 +49561,41 @@
         <v>4</v>
       </c>
       <c r="C39" s="2">
-        <v>5</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>3501</v>
+        <v>6</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>1274</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>3502</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B40" s="2">
         <v>4</v>
       </c>
       <c r="C40" s="2">
-        <v>6</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="B41" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C41" s="2">
-        <v>0</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>1277</v>
+        <v>1</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>1278</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -49578,24 +49606,27 @@
         <v>5</v>
       </c>
       <c r="C42" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>1278</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B43" s="2">
         <v>5</v>
       </c>
       <c r="C43" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>3503</v>
+        <v>3504</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>3506</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -49606,13 +49637,13 @@
         <v>5</v>
       </c>
       <c r="C44" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>3504</v>
+        <v>3505</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>3506</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -49623,13 +49654,13 @@
         <v>5</v>
       </c>
       <c r="C45" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>3505</v>
+        <v>3508</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>3507</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -49640,44 +49671,41 @@
         <v>5</v>
       </c>
       <c r="C46" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>3508</v>
+        <v>3510</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>3509</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3511</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B47" s="2">
         <v>5</v>
       </c>
       <c r="C47" s="2">
-        <v>4</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>3510</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>3511</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>3512</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="B48" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C48" s="2">
-        <v>0</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>3512</v>
+        <v>1</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>1279</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -49688,24 +49716,27 @@
         <v>6</v>
       </c>
       <c r="C49" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B50" s="2">
         <v>6</v>
       </c>
       <c r="C50" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>1280</v>
+        <v>3513</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>3514</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -49716,13 +49747,13 @@
         <v>6</v>
       </c>
       <c r="C51" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>3513</v>
+        <v>1281</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>3514</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -49733,13 +49764,13 @@
         <v>6</v>
       </c>
       <c r="C52" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>1281</v>
+        <v>3515</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>1282</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -49750,44 +49781,41 @@
         <v>6</v>
       </c>
       <c r="C53" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>3515</v>
+        <v>3517</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>3516</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B54" s="2">
         <v>6</v>
       </c>
       <c r="C54" s="2">
-        <v>4</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>3517</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>3518</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="B55" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C55" s="2">
-        <v>0</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>1283</v>
+        <v>1</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>1284</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -49798,24 +49826,27 @@
         <v>7</v>
       </c>
       <c r="C56" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B57" s="2">
         <v>7</v>
       </c>
       <c r="C57" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>1285</v>
+        <v>3519</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>3786</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -49826,13 +49857,13 @@
         <v>7</v>
       </c>
       <c r="C58" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>3519</v>
+        <v>3520</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>3786</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -49843,13 +49874,13 @@
         <v>7</v>
       </c>
       <c r="C59" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>3520</v>
+        <v>3521</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>3787</v>
+        <v>3788</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -49860,44 +49891,41 @@
         <v>7</v>
       </c>
       <c r="C60" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>3521</v>
+        <v>3522</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>3788</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3523</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B61" s="2">
         <v>7</v>
       </c>
       <c r="C61" s="2">
-        <v>4</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>3522</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>3523</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>3789</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="B62" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" s="2">
-        <v>0</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>3789</v>
+        <v>1</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>1286</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -49908,24 +49936,27 @@
         <v>8</v>
       </c>
       <c r="C63" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B64" s="2">
         <v>8</v>
       </c>
       <c r="C64" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>1287</v>
+        <v>3524</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>3790</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -49936,13 +49967,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>3524</v>
+        <v>3525</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>3790</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -49953,13 +49984,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>3525</v>
+        <v>3526</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>3528</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -49970,44 +50001,41 @@
         <v>8</v>
       </c>
       <c r="C67" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>3526</v>
+        <v>3527</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>3529</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B68" s="2">
         <v>8</v>
       </c>
       <c r="C68" s="2">
-        <v>4</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>3527</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>3530</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>3791</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="B69" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" s="2">
-        <v>0</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>3791</v>
+        <v>1</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>1288</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -50018,24 +50046,27 @@
         <v>9</v>
       </c>
       <c r="C70" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B71" s="2">
         <v>9</v>
       </c>
       <c r="C71" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>1289</v>
+        <v>3531</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>3533</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -50046,13 +50077,13 @@
         <v>9</v>
       </c>
       <c r="C72" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>3531</v>
+        <v>3532</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>3533</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -50063,13 +50094,13 @@
         <v>9</v>
       </c>
       <c r="C73" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>3532</v>
+        <v>1290</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>3534</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -50080,47 +50111,44 @@
         <v>9</v>
       </c>
       <c r="C74" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>1290</v>
+        <v>3535</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3536</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B75" s="2">
         <v>9</v>
       </c>
       <c r="C75" s="2">
-        <v>4</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>3535</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>3536</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="B76" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C76" s="2">
-        <v>0</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>4164</v>
       </c>
@@ -50128,24 +50156,27 @@
         <v>10</v>
       </c>
       <c r="C77" s="2">
-        <v>1</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B78" s="2">
         <v>10</v>
       </c>
       <c r="C78" s="2">
-        <v>2</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>1293</v>
+        <v>1</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>3537</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>3792</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -50156,13 +50187,13 @@
         <v>10</v>
       </c>
       <c r="C79" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>3537</v>
+        <v>1295</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>3792</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -50173,13 +50204,13 @@
         <v>10</v>
       </c>
       <c r="C80" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>1295</v>
+        <v>3538</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>1296</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -50190,44 +50221,41 @@
         <v>10</v>
       </c>
       <c r="C81" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>3538</v>
+        <v>3540</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>3539</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3793</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B82" s="2">
         <v>10</v>
       </c>
       <c r="C82" s="2">
-        <v>4</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>3540</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>3793</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>3794</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="B83" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C83" s="2">
-        <v>0</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>3794</v>
+        <v>1</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>1297</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -50238,24 +50266,27 @@
         <v>11</v>
       </c>
       <c r="C84" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B85" s="2">
         <v>11</v>
       </c>
       <c r="C85" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>1298</v>
+        <v>1299</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>1302</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -50266,13 +50297,13 @@
         <v>11</v>
       </c>
       <c r="C86" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>1299</v>
+        <v>3541</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>1302</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -50283,13 +50314,13 @@
         <v>11</v>
       </c>
       <c r="C87" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>3541</v>
+        <v>1300</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>3542</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -50300,61 +50331,58 @@
         <v>11</v>
       </c>
       <c r="C88" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B89" s="2">
         <v>11</v>
       </c>
       <c r="C89" s="2">
-        <v>4</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>3543</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>4165</v>
+        <v>4166</v>
       </c>
       <c r="B90" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C90" s="2">
         <v>0</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>3543</v>
+      <c r="D90" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>1306</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>4166</v>
+        <v>4164</v>
       </c>
       <c r="B91" s="2">
         <v>12</v>
       </c>
       <c r="C91" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>1305</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -50365,24 +50393,27 @@
         <v>12</v>
       </c>
       <c r="C92" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B93" s="2">
         <v>12</v>
       </c>
       <c r="C93" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>1308</v>
+        <v>3544</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>3546</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -50393,13 +50424,13 @@
         <v>12</v>
       </c>
       <c r="C94" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>3544</v>
+        <v>3545</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>3546</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -50410,13 +50441,13 @@
         <v>12</v>
       </c>
       <c r="C95" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>3545</v>
+        <v>3548</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>3547</v>
+        <v>3549</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -50427,61 +50458,58 @@
         <v>12</v>
       </c>
       <c r="C96" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>3548</v>
+        <v>1309</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>3549</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B97" s="2">
         <v>12</v>
       </c>
       <c r="C97" s="2">
-        <v>4</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>1309</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>4165</v>
+        <v>4166</v>
       </c>
       <c r="B98" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C98" s="2">
         <v>0</v>
       </c>
-      <c r="D98" s="3" t="s">
-        <v>3550</v>
+      <c r="D98" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>4166</v>
+        <v>4164</v>
       </c>
       <c r="B99" s="2">
         <v>13</v>
       </c>
       <c r="C99" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>4</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -50492,24 +50520,27 @@
         <v>13</v>
       </c>
       <c r="C100" s="2">
-        <v>1</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>1311</v>
+        <v>2</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>1312</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B101" s="2">
         <v>13</v>
       </c>
       <c r="C101" s="2">
-        <v>2</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>1312</v>
+        <v>1</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>3551</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>3553</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -50520,13 +50551,13 @@
         <v>13</v>
       </c>
       <c r="C102" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>3551</v>
+        <v>3552</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>3553</v>
+        <v>3554</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -50537,13 +50568,13 @@
         <v>13</v>
       </c>
       <c r="C103" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>3552</v>
+        <v>1313</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>3554</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -50554,44 +50585,41 @@
         <v>13</v>
       </c>
       <c r="C104" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B105" s="2">
         <v>13</v>
       </c>
       <c r="C105" s="2">
-        <v>4</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>1314</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="B106" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C106" s="2">
-        <v>0</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>3795</v>
+        <v>1</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>1317</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -50602,24 +50630,27 @@
         <v>14</v>
       </c>
       <c r="C107" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>1317</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B108" s="2">
         <v>14</v>
       </c>
       <c r="C108" s="2">
-        <v>2</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>3555</v>
+        <v>1</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>3556</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>3559</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -50630,13 +50661,13 @@
         <v>14</v>
       </c>
       <c r="C109" s="2">
-        <v>1</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>3556</v>
+        <v>2</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>3557</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>3559</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -50647,13 +50678,13 @@
         <v>14</v>
       </c>
       <c r="C110" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>3557</v>
+        <v>3558</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>3560</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -50664,44 +50695,41 @@
         <v>14</v>
       </c>
       <c r="C111" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>3558</v>
+        <v>1318</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B112" s="2">
         <v>14</v>
       </c>
       <c r="C112" s="2">
-        <v>4</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>1318</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="B113" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C113" s="2">
-        <v>0</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>1321</v>
+        <v>1</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>1322</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -50712,24 +50740,27 @@
         <v>15</v>
       </c>
       <c r="C114" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B115" s="2">
         <v>15</v>
       </c>
       <c r="C115" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>1323</v>
+        <v>3561</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>3563</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -50740,13 +50771,13 @@
         <v>15</v>
       </c>
       <c r="C116" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>3561</v>
+        <v>3562</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>3563</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -50757,13 +50788,13 @@
         <v>15</v>
       </c>
       <c r="C117" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>3562</v>
+        <v>3565</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>3564</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -50774,44 +50805,41 @@
         <v>15</v>
       </c>
       <c r="C118" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>3565</v>
+        <v>3567</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>3566</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B119" s="2">
         <v>15</v>
       </c>
       <c r="C119" s="2">
-        <v>4</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>3567</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>3568</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="B120" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C120" s="2">
-        <v>0</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>1324</v>
+        <v>1</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>1325</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -50822,24 +50850,27 @@
         <v>16</v>
       </c>
       <c r="C121" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B122" s="2">
         <v>16</v>
       </c>
       <c r="C122" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>1326</v>
+        <v>3569</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>3570</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -50850,13 +50881,13 @@
         <v>16</v>
       </c>
       <c r="C123" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>3569</v>
+        <v>1327</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>3570</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -50867,13 +50898,13 @@
         <v>16</v>
       </c>
       <c r="C124" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -50884,44 +50915,41 @@
         <v>16</v>
       </c>
       <c r="C125" s="2">
-        <v>3</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>1328</v>
+        <v>4</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>3571</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B126" s="2">
         <v>16</v>
       </c>
       <c r="C126" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>3571</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>3572</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="B127" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C127" s="2">
-        <v>0</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>1331</v>
+        <v>1</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>1332</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -50932,24 +50960,27 @@
         <v>17</v>
       </c>
       <c r="C128" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>1332</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B129" s="2">
         <v>17</v>
       </c>
       <c r="C129" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>3573</v>
+        <v>3574</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>3577</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -50960,13 +50991,13 @@
         <v>17</v>
       </c>
       <c r="C130" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>3577</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -50977,13 +51008,13 @@
         <v>17</v>
       </c>
       <c r="C131" s="2">
-        <v>2</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>3575</v>
+        <v>3</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>1333</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>3578</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -50994,61 +51025,58 @@
         <v>17</v>
       </c>
       <c r="C132" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>1333</v>
+        <v>3576</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B133" s="2">
         <v>17</v>
       </c>
       <c r="C133" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>3576</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>3796</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3797</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>4165</v>
+        <v>4166</v>
       </c>
       <c r="B134" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
       </c>
-      <c r="D134" s="3" t="s">
-        <v>3797</v>
+      <c r="D134" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>4166</v>
+        <v>4164</v>
       </c>
       <c r="B135" s="2">
         <v>18</v>
       </c>
       <c r="C135" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>208</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -51059,24 +51087,27 @@
         <v>18</v>
       </c>
       <c r="C136" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B137" s="2">
         <v>18</v>
       </c>
       <c r="C137" s="2">
-        <v>2</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>1336</v>
+        <v>1</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>3579</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>3580</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -51087,13 +51118,13 @@
         <v>18</v>
       </c>
       <c r="C138" s="2">
-        <v>1</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>3579</v>
+        <v>2</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>3581</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>3580</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -51104,13 +51135,13 @@
         <v>18</v>
       </c>
       <c r="C139" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>3581</v>
+        <v>3583</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>3582</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -51121,44 +51152,41 @@
         <v>18</v>
       </c>
       <c r="C140" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>3583</v>
+        <v>1337</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>3584</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3798</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B141" s="2">
         <v>18</v>
       </c>
       <c r="C141" s="2">
-        <v>4</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>1337</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>3798</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="B142" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C142" s="2">
-        <v>0</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>1338</v>
+        <v>1</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>1339</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -51169,24 +51197,27 @@
         <v>19</v>
       </c>
       <c r="C143" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B144" s="2">
         <v>19</v>
       </c>
       <c r="C144" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>1340</v>
+        <v>1341</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>1343</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -51197,13 +51228,13 @@
         <v>19</v>
       </c>
       <c r="C145" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -51214,13 +51245,13 @@
         <v>19</v>
       </c>
       <c r="C146" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>1342</v>
+        <v>3585</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>1344</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -51231,44 +51262,41 @@
         <v>19</v>
       </c>
       <c r="C147" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>3585</v>
+        <v>3586</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>3587</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B148" s="2">
         <v>19</v>
       </c>
       <c r="C148" s="2">
-        <v>4</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>3586</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>3588</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="B149" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C149" s="2">
-        <v>0</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>1345</v>
+        <v>1</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>1347</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -51279,24 +51307,27 @@
         <v>20</v>
       </c>
       <c r="C150" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B151" s="2">
         <v>20</v>
       </c>
       <c r="C151" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>1346</v>
+        <v>3589</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>3591</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -51307,13 +51338,13 @@
         <v>20</v>
       </c>
       <c r="C152" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>3589</v>
+        <v>3590</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>3591</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -51324,13 +51355,13 @@
         <v>20</v>
       </c>
       <c r="C153" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>3590</v>
+        <v>3593</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>3592</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -51341,44 +51372,41 @@
         <v>20</v>
       </c>
       <c r="C154" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>3593</v>
+        <v>3595</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>3594</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B155" s="2">
         <v>20</v>
       </c>
       <c r="C155" s="2">
-        <v>4</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>3595</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>3596</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="B156" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C156" s="2">
-        <v>0</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>1348</v>
+        <v>1</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>1349</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -51389,24 +51417,27 @@
         <v>21</v>
       </c>
       <c r="C157" s="2">
-        <v>1</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>1349</v>
+        <v>2</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>1350</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B158" s="2">
         <v>21</v>
       </c>
       <c r="C158" s="2">
-        <v>2</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>1350</v>
+        <v>1</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>1353</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -51417,13 +51448,13 @@
         <v>21</v>
       </c>
       <c r="C159" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -51434,13 +51465,13 @@
         <v>21</v>
       </c>
       <c r="C160" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>1352</v>
+        <v>3597</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>1354</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -51451,44 +51482,41 @@
         <v>21</v>
       </c>
       <c r="C161" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>3597</v>
+        <v>3598</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>3599</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B162" s="2">
         <v>21</v>
       </c>
       <c r="C162" s="2">
-        <v>4</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>3598</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="B163" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C163" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -51499,24 +51527,27 @@
         <v>22</v>
       </c>
       <c r="C164" s="2">
-        <v>1</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>1356</v>
+        <v>2</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>1357</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B165" s="2">
         <v>22</v>
       </c>
       <c r="C165" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>1357</v>
+        <v>3601</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>3602</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -51527,13 +51558,13 @@
         <v>22</v>
       </c>
       <c r="C166" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>3601</v>
+        <v>1358</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>3602</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -51544,13 +51575,13 @@
         <v>22</v>
       </c>
       <c r="C167" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>1358</v>
+        <v>3604</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>3603</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -51561,44 +51592,41 @@
         <v>22</v>
       </c>
       <c r="C168" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>3604</v>
+        <v>3606</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>3605</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B169" s="2">
         <v>22</v>
       </c>
       <c r="C169" s="2">
-        <v>4</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>3606</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>3799</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="B170" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C170" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>3800</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -51609,24 +51637,27 @@
         <v>23</v>
       </c>
       <c r="C171" s="2">
-        <v>1</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>1359</v>
+        <v>2</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>1360</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B172" s="2">
         <v>23</v>
       </c>
       <c r="C172" s="2">
-        <v>2</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>1360</v>
+        <v>1</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>1365</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -51637,13 +51668,13 @@
         <v>23</v>
       </c>
       <c r="C173" s="2">
-        <v>1</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>1362</v>
+        <v>2</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>1363</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -51654,13 +51685,13 @@
         <v>23</v>
       </c>
       <c r="C174" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -51671,44 +51702,41 @@
         <v>23</v>
       </c>
       <c r="C175" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B176" s="2">
         <v>23</v>
       </c>
       <c r="C176" s="2">
-        <v>4</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>1361</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="B177" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C177" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>1369</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -51719,24 +51747,27 @@
         <v>24</v>
       </c>
       <c r="C178" s="2">
-        <v>1</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>1372</v>
+        <v>2</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>1370</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B179" s="2">
         <v>24</v>
       </c>
       <c r="C179" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>1370</v>
+        <v>3607</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>3610</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -51747,13 +51778,13 @@
         <v>24</v>
       </c>
       <c r="C180" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>3607</v>
+        <v>3608</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>3610</v>
+        <v>3611</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -51764,13 +51795,13 @@
         <v>24</v>
       </c>
       <c r="C181" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>3608</v>
+        <v>3609</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>3611</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -51781,44 +51812,41 @@
         <v>24</v>
       </c>
       <c r="C182" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>3609</v>
+        <v>1371</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>3612</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B183" s="2">
         <v>24</v>
       </c>
       <c r="C183" s="2">
-        <v>4</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>1371</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>3613</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="B184" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C184" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>3613</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -51829,24 +51857,27 @@
         <v>25</v>
       </c>
       <c r="C185" s="2">
-        <v>1</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>1375</v>
+        <v>2</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>1374</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B186" s="2">
         <v>25</v>
       </c>
       <c r="C186" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>1374</v>
+        <v>3614</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>3615</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -51857,13 +51888,13 @@
         <v>25</v>
       </c>
       <c r="C187" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>3614</v>
+        <v>1376</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>3615</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -51874,13 +51905,13 @@
         <v>25</v>
       </c>
       <c r="C188" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>1376</v>
+        <v>3616</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>1377</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -51891,44 +51922,41 @@
         <v>25</v>
       </c>
       <c r="C189" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>3616</v>
+        <v>3618</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>3617</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B190" s="2">
         <v>25</v>
       </c>
       <c r="C190" s="2">
-        <v>4</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>3618</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>3619</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="B191" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C191" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>3620</v>
+        <v>4167</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -51939,24 +51967,27 @@
         <v>26</v>
       </c>
       <c r="C192" s="2">
-        <v>1</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>1379</v>
+        <v>2</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>4168</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B193" s="2">
         <v>26</v>
       </c>
       <c r="C193" s="2">
-        <v>2</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>1381</v>
+        <v>1</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>4169</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>4173</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -51967,13 +51998,13 @@
         <v>26</v>
       </c>
       <c r="C194" s="2">
-        <v>1</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>3621</v>
+        <v>2</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>4170</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>3623</v>
+        <v>4174</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -51984,13 +52015,13 @@
         <v>26</v>
       </c>
       <c r="C195" s="2">
-        <v>2</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>3622</v>
+        <v>3</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>4171</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>3624</v>
+        <v>4175</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -52001,44 +52032,41 @@
         <v>26</v>
       </c>
       <c r="C196" s="2">
-        <v>3</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>1378</v>
+        <v>4</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>4172</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4176</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B197" s="2">
         <v>26</v>
       </c>
       <c r="C197" s="2">
-        <v>4</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>1380</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="B198" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C198" s="2">
-        <v>0</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>1384</v>
+        <v>1</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>1379</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -52049,38 +52077,44 @@
         <v>27</v>
       </c>
       <c r="C199" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>3</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B200" s="2">
         <v>27</v>
       </c>
       <c r="C200" s="2">
-        <v>2</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>1385</v>
+        <v>1</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>3621</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>3623</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B201" s="2">
         <v>27</v>
       </c>
       <c r="C201" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>1386</v>
+        <v>3622</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>3624</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -52091,13 +52125,13 @@
         <v>27</v>
       </c>
       <c r="C202" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>3625</v>
+        <v>1378</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>3627</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -52108,61 +52142,55 @@
         <v>27</v>
       </c>
       <c r="C203" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>3626</v>
+        <v>1380</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>3628</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B204" s="2">
         <v>27</v>
       </c>
       <c r="C204" s="2">
-        <v>3</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>1387</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>1388</v>
+        <v>0</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="B205" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C205" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>3629</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>3630</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="B206" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C206" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -52173,52 +52201,61 @@
         <v>28</v>
       </c>
       <c r="C207" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B208" s="2">
         <v>28</v>
       </c>
       <c r="C208" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>1391</v>
+        <v>3625</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>3627</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B209" s="2">
         <v>28</v>
       </c>
       <c r="C209" s="2">
-        <v>3</v>
-      </c>
-      <c r="D209" s="3" t="s">
-        <v>1392</v>
+        <v>2</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>3626</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>3628</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B210" s="2">
         <v>28</v>
       </c>
       <c r="C210" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>1393</v>
+        <v>1387</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>1388</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -52229,98 +52266,83 @@
         <v>28</v>
       </c>
       <c r="C211" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>1394</v>
+        <v>3629</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B212" s="2">
         <v>28</v>
       </c>
       <c r="C212" s="2">
-        <v>2</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>3632</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>3636</v>
+        <v>0</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>1389</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="B213" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C213" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>3631</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>3635</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="B214" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C214" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>1395</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>3637</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="B215" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C215" s="2">
-        <v>5</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>1396</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>3801</v>
+        <v>3</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>1392</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="B216" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C216" s="2">
-        <v>6</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>1397</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>1399</v>
+        <v>4</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>1393</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -52328,16 +52350,16 @@
         <v>4163</v>
       </c>
       <c r="B217" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C217" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>3633</v>
+        <v>1394</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>3638</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -52345,58 +52367,67 @@
         <v>4163</v>
       </c>
       <c r="B218" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C218" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>3634</v>
+        <v>3632</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>3639</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>4165</v>
+        <v>4163</v>
       </c>
       <c r="B219" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C219" s="2">
-        <v>0</v>
-      </c>
-      <c r="D219" s="3" t="s">
-        <v>3802</v>
+        <v>3</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>3631</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>3635</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B220" s="2">
         <v>29</v>
       </c>
       <c r="C220" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>1403</v>
+        <v>1395</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>3637</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B221" s="2">
         <v>29</v>
       </c>
       <c r="C221" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>1400</v>
+        <v>1396</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>3801</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -52407,13 +52438,13 @@
         <v>29</v>
       </c>
       <c r="C222" s="2">
-        <v>1</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>3640</v>
+        <v>6</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>1397</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>1404</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -52424,13 +52455,13 @@
         <v>29</v>
       </c>
       <c r="C223" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>1401</v>
+        <v>3633</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>1405</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -52441,253 +52472,244 @@
         <v>29</v>
       </c>
       <c r="C224" s="2">
-        <v>3</v>
-      </c>
-      <c r="D224" s="3" t="s">
-        <v>3641</v>
+        <v>8</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>3634</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>3642</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3639</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B225" s="2">
         <v>29</v>
       </c>
       <c r="C225" s="2">
-        <v>4</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>3643</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>3803</v>
+        <v>0</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>3802</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="B226" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C226" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>3644</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>3645</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="B227" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C227" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>4165</v>
+        <v>4163</v>
       </c>
       <c r="B228" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C228" s="2">
-        <v>0</v>
-      </c>
-      <c r="D228" s="5" t="s">
-        <v>3804</v>
+        <v>1</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>3640</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>1404</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>4166</v>
+        <v>4163</v>
       </c>
       <c r="B229" s="2">
         <v>30</v>
       </c>
       <c r="C229" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>35</v>
+        <v>1401</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>36</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B230" s="2">
         <v>30</v>
       </c>
       <c r="C230" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>1407</v>
+        <v>3641</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>3642</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B231" s="2">
         <v>30</v>
       </c>
       <c r="C231" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>1412</v>
+        <v>3643</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>3803</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B232" s="2">
         <v>30</v>
       </c>
       <c r="C232" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>1408</v>
+        <v>3644</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>3645</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B233" s="2">
         <v>30</v>
       </c>
       <c r="C233" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1402</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B234" s="2">
         <v>30</v>
       </c>
       <c r="C234" s="2">
-        <v>1</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>3646</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>3648</v>
+        <v>0</v>
+      </c>
+      <c r="D234" s="5" t="s">
+        <v>3804</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>4163</v>
+        <v>4166</v>
       </c>
       <c r="B235" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C235" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>3647</v>
+        <v>35</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>3649</v>
+        <v>36</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="B236" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C236" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>1411</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="B237" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C237" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="B238" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C238" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>3650</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>3651</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="B239" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C239" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>3652</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>3653</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -52695,16 +52717,16 @@
         <v>4163</v>
       </c>
       <c r="B240" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C240" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>3654</v>
+        <v>3646</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>3655</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -52712,58 +52734,67 @@
         <v>4163</v>
       </c>
       <c r="B241" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C241" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>1410</v>
+        <v>3647</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>3656</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>3649</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>4165</v>
+        <v>4163</v>
       </c>
       <c r="B242" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C242" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>1415</v>
+        <v>1411</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>1413</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B243" s="2">
         <v>31</v>
       </c>
       <c r="C243" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>1417</v>
+        <v>424</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>1414</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B244" s="2">
         <v>31</v>
       </c>
       <c r="C244" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>1416</v>
+        <v>3650</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>3651</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -52774,13 +52805,13 @@
         <v>31</v>
       </c>
       <c r="C245" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>3657</v>
+        <v>3652</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>3805</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -52791,13 +52822,13 @@
         <v>31</v>
       </c>
       <c r="C246" s="2">
-        <v>2</v>
-      </c>
-      <c r="D246" s="3" t="s">
-        <v>3658</v>
+        <v>7</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>3654</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>3659</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -52808,134 +52839,140 @@
         <v>31</v>
       </c>
       <c r="C247" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>1418</v>
+        <v>1410</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3656</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B248" s="2">
         <v>31</v>
       </c>
       <c r="C248" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>3660</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>3663</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="B249" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C249" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>3661</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>3664</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="B250" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C250" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>3662</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>3665</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>4165</v>
+        <v>4163</v>
       </c>
       <c r="B251" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C251" s="2">
-        <v>0</v>
-      </c>
-      <c r="D251" s="3" t="s">
-        <v>1420</v>
+        <v>1</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>3657</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>3805</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B252" s="2">
         <v>32</v>
       </c>
       <c r="C252" s="2">
-        <v>1</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>1421</v>
+        <v>2</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>3658</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>3659</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B253" s="2">
         <v>32</v>
       </c>
       <c r="C253" s="2">
-        <v>2</v>
-      </c>
-      <c r="D253" s="3" t="s">
-        <v>1422</v>
+        <v>3</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>1419</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B254" s="2">
         <v>32</v>
       </c>
       <c r="C254" s="2">
-        <v>3</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>1423</v>
+        <v>4</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>3660</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>3663</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B255" s="2">
         <v>32</v>
       </c>
       <c r="C255" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>1424</v>
+        <v>3661</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>3664</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -52946,98 +52983,83 @@
         <v>32</v>
       </c>
       <c r="C256" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>3666</v>
+        <v>3662</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>3669</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3665</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B257" s="2">
         <v>32</v>
       </c>
       <c r="C257" s="2">
-        <v>2</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>1425</v>
-      </c>
-      <c r="E257" s="2" t="s">
-        <v>1427</v>
+        <v>0</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>1420</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="B258" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C258" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>3667</v>
-      </c>
-      <c r="E258" s="2" t="s">
-        <v>3668</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="B259" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C259" s="2">
-        <v>4</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="E259" s="2" t="s">
-        <v>1429</v>
+        <v>2</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>1422</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="B260" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C260" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>3670</v>
-      </c>
-      <c r="E260" s="2" t="s">
-        <v>3671</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="B261" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C261" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>3672</v>
-      </c>
-      <c r="E261" s="2" t="s">
-        <v>3673</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -53045,16 +53067,16 @@
         <v>4163</v>
       </c>
       <c r="B262" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C262" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>3674</v>
+        <v>3666</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>3675</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -53062,58 +53084,67 @@
         <v>4163</v>
       </c>
       <c r="B263" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C263" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>4165</v>
+        <v>4163</v>
       </c>
       <c r="B264" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C264" s="2">
-        <v>0</v>
-      </c>
-      <c r="D264" s="3" t="s">
-        <v>1431</v>
+        <v>3</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>3667</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>3668</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B265" s="2">
         <v>33</v>
       </c>
       <c r="C265" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>1432</v>
+        <v>1428</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>1429</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B266" s="2">
         <v>33</v>
       </c>
       <c r="C266" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>1433</v>
+        <v>3670</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>3671</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -53124,13 +53155,13 @@
         <v>33</v>
       </c>
       <c r="C267" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>3676</v>
+        <v>3672</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>3677</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -53141,13 +53172,13 @@
         <v>33</v>
       </c>
       <c r="C268" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>1436</v>
+        <v>3674</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>1437</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -53158,106 +53189,106 @@
         <v>33</v>
       </c>
       <c r="C269" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>1434</v>
+        <v>1426</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B270" s="2">
         <v>33</v>
       </c>
       <c r="C270" s="2">
-        <v>4</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>1435</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>1439</v>
+        <v>0</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>1431</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="B271" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C271" s="2">
-        <v>5</v>
-      </c>
-      <c r="D271" s="3" t="s">
-        <v>3678</v>
-      </c>
-      <c r="E271" s="2" t="s">
-        <v>3680</v>
+        <v>1</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>1432</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="B272" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C272" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>3679</v>
-      </c>
-      <c r="E272" s="2" t="s">
-        <v>3681</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>4165</v>
+        <v>4163</v>
       </c>
       <c r="B273" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C273" s="2">
-        <v>0</v>
-      </c>
-      <c r="D273" s="3" t="s">
-        <v>1440</v>
+        <v>1</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>3676</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>3677</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B274" s="2">
         <v>34</v>
       </c>
       <c r="C274" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>1441</v>
+        <v>1436</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>1437</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B275" s="2">
         <v>34</v>
       </c>
       <c r="C275" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>1442</v>
+        <v>1434</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>1438</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -53268,13 +53299,13 @@
         <v>34</v>
       </c>
       <c r="C276" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>3682</v>
+        <v>1435</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>3685</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -53285,13 +53316,13 @@
         <v>34</v>
       </c>
       <c r="C277" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>3683</v>
+        <v>3678</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>3686</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -53302,106 +53333,106 @@
         <v>34</v>
       </c>
       <c r="C278" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>3684</v>
+        <v>3679</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>3687</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B279" s="2">
         <v>34</v>
       </c>
       <c r="C279" s="2">
-        <v>4</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>3688</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>3689</v>
+        <v>0</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>1440</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="B280" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C280" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>3690</v>
-      </c>
-      <c r="E280" s="2" t="s">
-        <v>3691</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="B281" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C281" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>1443</v>
-      </c>
-      <c r="E281" s="2" t="s">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>4165</v>
+        <v>4163</v>
       </c>
       <c r="B282" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C282" s="2">
-        <v>0</v>
-      </c>
-      <c r="D282" s="3" t="s">
-        <v>3806</v>
+        <v>1</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>3682</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>3685</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B283" s="2">
         <v>35</v>
       </c>
       <c r="C283" s="2">
-        <v>1</v>
-      </c>
-      <c r="D283" s="4" t="s">
-        <v>1445</v>
+        <v>2</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>3683</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>3686</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B284" s="2">
         <v>35</v>
       </c>
       <c r="C284" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>1446</v>
+        <v>3684</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>3687</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -53412,13 +53443,13 @@
         <v>35</v>
       </c>
       <c r="C285" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>1448</v>
+        <v>3688</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>1451</v>
+        <v>3689</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -53429,13 +53460,13 @@
         <v>35</v>
       </c>
       <c r="C286" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>3692</v>
+        <v>3690</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>3694</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -53446,64 +53477,55 @@
         <v>35</v>
       </c>
       <c r="C287" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>3693</v>
+        <v>1443</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>3695</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B288" s="2">
         <v>35</v>
       </c>
       <c r="C288" s="2">
-        <v>4</v>
-      </c>
-      <c r="D288" s="2" t="s">
-        <v>1449</v>
-      </c>
-      <c r="E288" s="2" t="s">
-        <v>1454</v>
+        <v>0</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>3806</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="B289" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C289" s="2">
-        <v>5</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>1450</v>
-      </c>
-      <c r="E289" s="2" t="s">
-        <v>1452</v>
+        <v>1</v>
+      </c>
+      <c r="D289" s="4" t="s">
+        <v>1445</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="B290" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C290" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>3696</v>
-      </c>
-      <c r="E290" s="2" t="s">
-        <v>3697</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -53511,16 +53533,16 @@
         <v>4163</v>
       </c>
       <c r="B291" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C291" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>3698</v>
+        <v>1448</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>3699</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -53528,58 +53550,67 @@
         <v>4163</v>
       </c>
       <c r="B292" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C292" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>1447</v>
+        <v>3692</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>3694</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>4165</v>
+        <v>4163</v>
       </c>
       <c r="B293" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C293" s="2">
-        <v>0</v>
-      </c>
-      <c r="D293" s="3" t="s">
-        <v>3807</v>
+        <v>3</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>3693</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>3695</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B294" s="2">
         <v>36</v>
       </c>
       <c r="C294" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>3700</v>
+        <v>1449</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>1454</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B295" s="2">
         <v>36</v>
       </c>
       <c r="C295" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>1455</v>
+        <v>1450</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>1452</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -53590,13 +53621,13 @@
         <v>36</v>
       </c>
       <c r="C296" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>3701</v>
+        <v>3696</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>3703</v>
+        <v>3697</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -53607,13 +53638,13 @@
         <v>36</v>
       </c>
       <c r="C297" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>3702</v>
+        <v>3698</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>3704</v>
+        <v>3699</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -53624,106 +53655,106 @@
         <v>36</v>
       </c>
       <c r="C298" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>1456</v>
+        <v>1447</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B299" s="2">
         <v>36</v>
       </c>
       <c r="C299" s="2">
-        <v>4</v>
-      </c>
-      <c r="D299" s="2" t="s">
-        <v>1457</v>
-      </c>
-      <c r="E299" s="2" t="s">
-        <v>1459</v>
+        <v>0</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>3807</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="B300" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C300" s="2">
-        <v>5</v>
-      </c>
-      <c r="D300" s="3" t="s">
-        <v>3705</v>
-      </c>
-      <c r="E300" s="2" t="s">
-        <v>3707</v>
+        <v>1</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>3700</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="B301" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C301" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>3706</v>
-      </c>
-      <c r="E301" s="2" t="s">
-        <v>3708</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>4165</v>
+        <v>4163</v>
       </c>
       <c r="B302" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C302" s="2">
-        <v>0</v>
-      </c>
-      <c r="D302" s="3" t="s">
-        <v>3808</v>
+        <v>1</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>3701</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>3703</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B303" s="2">
         <v>37</v>
       </c>
       <c r="C303" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>1461</v>
+        <v>3702</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>3704</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B304" s="2">
         <v>37</v>
       </c>
       <c r="C304" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>1460</v>
+        <v>1456</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>1458</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -53734,13 +53765,13 @@
         <v>37</v>
       </c>
       <c r="C305" s="2">
-        <v>1</v>
-      </c>
-      <c r="D305" s="3" t="s">
-        <v>3709</v>
+        <v>4</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>1457</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>3710</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -53751,13 +53782,13 @@
         <v>37</v>
       </c>
       <c r="C306" s="2">
-        <v>2</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>3711</v>
+        <v>5</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>3705</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>3712</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -53768,64 +53799,55 @@
         <v>37</v>
       </c>
       <c r="C307" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>3713</v>
+        <v>3706</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>3714</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3708</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B308" s="2">
         <v>37</v>
       </c>
       <c r="C308" s="2">
-        <v>4</v>
-      </c>
-      <c r="D308" s="2" t="s">
-        <v>1463</v>
-      </c>
-      <c r="E308" s="2" t="s">
-        <v>1464</v>
+        <v>0</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>3808</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="B309" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C309" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>3715</v>
-      </c>
-      <c r="E309" s="2" t="s">
-        <v>3717</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="B310" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C310" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>3716</v>
-      </c>
-      <c r="E310" s="2" t="s">
-        <v>3718</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -53833,58 +53855,67 @@
         <v>4163</v>
       </c>
       <c r="B311" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C311" s="2">
-        <v>7</v>
-      </c>
-      <c r="D311" s="2" t="s">
-        <v>1462</v>
+        <v>1</v>
+      </c>
+      <c r="D311" s="3" t="s">
+        <v>3709</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>1465</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>3710</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>4165</v>
+        <v>4163</v>
       </c>
       <c r="B312" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C312" s="2">
-        <v>0</v>
-      </c>
-      <c r="D312" s="3" t="s">
-        <v>1466</v>
+        <v>2</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>3711</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>3712</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B313" s="2">
         <v>38</v>
       </c>
       <c r="C313" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>1467</v>
+        <v>3713</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>3714</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B314" s="2">
         <v>38</v>
       </c>
       <c r="C314" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>1468</v>
+        <v>1463</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -53895,13 +53926,13 @@
         <v>38</v>
       </c>
       <c r="C315" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>3719</v>
+        <v>3715</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>3722</v>
+        <v>3717</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -53912,13 +53943,13 @@
         <v>38</v>
       </c>
       <c r="C316" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>3720</v>
+        <v>3716</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>3809</v>
+        <v>3718</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -53929,106 +53960,106 @@
         <v>38</v>
       </c>
       <c r="C317" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>3721</v>
+        <v>1462</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>3723</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B318" s="2">
         <v>38</v>
       </c>
       <c r="C318" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>3724</v>
-      </c>
-      <c r="E318" s="2" t="s">
-        <v>3725</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="B319" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C319" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>3726</v>
-      </c>
-      <c r="E319" s="2" t="s">
-        <v>3727</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="B320" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C320" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E320" s="2" t="s">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>4165</v>
+        <v>4163</v>
       </c>
       <c r="B321" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C321" s="2">
-        <v>0</v>
-      </c>
-      <c r="D321" s="3" t="s">
-        <v>1471</v>
+        <v>1</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>3719</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>3722</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B322" s="2">
         <v>39</v>
       </c>
       <c r="C322" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>1472</v>
+        <v>3720</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>3809</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B323" s="2">
         <v>39</v>
       </c>
       <c r="C323" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>1473</v>
+        <v>3721</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>3723</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -54039,13 +54070,13 @@
         <v>39</v>
       </c>
       <c r="C324" s="2">
-        <v>1</v>
-      </c>
-      <c r="D324" s="2" t="s">
-        <v>3728</v>
+        <v>4</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>3724</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>3729</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -54056,13 +54087,13 @@
         <v>39</v>
       </c>
       <c r="C325" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>1474</v>
+        <v>3726</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>1482</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -54073,64 +54104,55 @@
         <v>39</v>
       </c>
       <c r="C326" s="2">
-        <v>3</v>
-      </c>
-      <c r="D326" s="3" t="s">
-        <v>1475</v>
+        <v>6</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>1469</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>1483</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B327" s="2">
         <v>39</v>
       </c>
       <c r="C327" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E327" s="2" t="s">
-        <v>1484</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="B328" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C328" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>1477</v>
-      </c>
-      <c r="E328" s="2" t="s">
-        <v>1485</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="B329" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C329" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>1478</v>
-      </c>
-      <c r="E329" s="2" t="s">
-        <v>3730</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -54138,16 +54160,16 @@
         <v>4163</v>
       </c>
       <c r="B330" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C330" s="2">
-        <v>7</v>
-      </c>
-      <c r="D330" s="3" t="s">
-        <v>1479</v>
+        <v>1</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>3728</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>1486</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -54155,16 +54177,16 @@
         <v>4163</v>
       </c>
       <c r="B331" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C331" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>3731</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -54172,58 +54194,67 @@
         <v>4163</v>
       </c>
       <c r="B332" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C332" s="2">
-        <v>9</v>
-      </c>
-      <c r="D332" s="2" t="s">
-        <v>1481</v>
+        <v>3</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>1475</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>4165</v>
+        <v>4163</v>
       </c>
       <c r="B333" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C333" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>3732</v>
+        <v>1476</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>1484</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B334" s="2">
         <v>40</v>
       </c>
       <c r="C334" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>1488</v>
+        <v>1477</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>1485</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B335" s="2">
         <v>40</v>
       </c>
       <c r="C335" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>1489</v>
+        <v>1478</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>3730</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -54234,13 +54265,13 @@
         <v>40</v>
       </c>
       <c r="C336" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>1491</v>
+        <v>1479</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>1500</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -54251,13 +54282,13 @@
         <v>40</v>
       </c>
       <c r="C337" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>1492</v>
+        <v>1480</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>1501</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -54268,64 +54299,55 @@
         <v>40</v>
       </c>
       <c r="C338" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>1493</v>
+        <v>1481</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B339" s="2">
         <v>40</v>
       </c>
       <c r="C339" s="2">
-        <v>4</v>
-      </c>
-      <c r="D339" s="2" t="s">
-        <v>1494</v>
-      </c>
-      <c r="E339" s="2" t="s">
-        <v>1503</v>
+        <v>0</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>3732</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="B340" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C340" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>1495</v>
-      </c>
-      <c r="E340" s="2" t="s">
-        <v>1504</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="B341" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C341" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>1496</v>
-      </c>
-      <c r="E341" s="2" t="s">
-        <v>1505</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -54333,16 +54355,16 @@
         <v>4163</v>
       </c>
       <c r="B342" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C342" s="2">
-        <v>7</v>
-      </c>
-      <c r="D342" s="2" t="s">
-        <v>1497</v>
+        <v>1</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>1491</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -54350,16 +54372,16 @@
         <v>4163</v>
       </c>
       <c r="B343" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C343" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -54367,16 +54389,16 @@
         <v>4163</v>
       </c>
       <c r="B344" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C344" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>3810</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -54384,72 +54406,84 @@
         <v>4163</v>
       </c>
       <c r="B345" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C345" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>1490</v>
+        <v>1494</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>3733</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>4165</v>
+        <v>4163</v>
       </c>
       <c r="B346" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C346" s="2">
-        <v>0</v>
-      </c>
-      <c r="D346" s="3" t="s">
-        <v>1508</v>
+        <v>5</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E346" s="2" t="s">
+        <v>1504</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B347" s="2">
         <v>41</v>
       </c>
       <c r="C347" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>3</v>
+        <v>1496</v>
+      </c>
+      <c r="E347" s="2" t="s">
+        <v>1505</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B348" s="2">
         <v>41</v>
       </c>
       <c r="C348" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>1509</v>
+        <v>1497</v>
+      </c>
+      <c r="E348" s="2" t="s">
+        <v>1506</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B349" s="2">
         <v>41</v>
       </c>
       <c r="C349" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>1510</v>
+        <v>1498</v>
+      </c>
+      <c r="E349" s="2" t="s">
+        <v>1507</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -54460,13 +54494,13 @@
         <v>41</v>
       </c>
       <c r="C350" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>3734</v>
+        <v>1499</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
@@ -54477,61 +54511,55 @@
         <v>41</v>
       </c>
       <c r="C351" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>3735</v>
+        <v>1490</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>3736</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3733</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B352" s="2">
         <v>41</v>
       </c>
       <c r="C352" s="2">
-        <v>3</v>
-      </c>
-      <c r="D352" s="2" t="s">
-        <v>3737</v>
-      </c>
-      <c r="E352" s="2" t="s">
-        <v>3739</v>
+        <v>0</v>
+      </c>
+      <c r="D352" s="3" t="s">
+        <v>1508</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="B353" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C353" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>3738</v>
-      </c>
-      <c r="E353" s="2" t="s">
-        <v>3740</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="B354" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C354" s="2">
-        <v>0</v>
-      </c>
-      <c r="D354" s="3" t="s">
-        <v>3812</v>
+        <v>2</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>1509</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
@@ -54542,24 +54570,27 @@
         <v>42</v>
       </c>
       <c r="C355" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B356" s="2">
         <v>42</v>
       </c>
       <c r="C356" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>1511</v>
+        <v>3734</v>
+      </c>
+      <c r="E356" s="2" t="s">
+        <v>3811</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
@@ -54570,13 +54601,13 @@
         <v>42</v>
       </c>
       <c r="C357" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>3741</v>
+        <v>3735</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>3742</v>
+        <v>3736</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
@@ -54587,13 +54618,13 @@
         <v>42</v>
       </c>
       <c r="C358" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>1513</v>
+        <v>3737</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>1516</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
@@ -54604,106 +54635,106 @@
         <v>42</v>
       </c>
       <c r="C359" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>1514</v>
+        <v>3738</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B360" s="2">
         <v>42</v>
       </c>
       <c r="C360" s="2">
-        <v>4</v>
-      </c>
-      <c r="D360" s="2" t="s">
-        <v>3743</v>
-      </c>
-      <c r="E360" s="2" t="s">
-        <v>3744</v>
+        <v>0</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>3812</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="B361" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C361" s="2">
-        <v>5</v>
-      </c>
-      <c r="D361" s="3" t="s">
-        <v>3745</v>
-      </c>
-      <c r="E361" s="2" t="s">
-        <v>3746</v>
+        <v>1</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>1512</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="B362" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C362" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>1515</v>
-      </c>
-      <c r="E362" s="2" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>4165</v>
+        <v>4163</v>
       </c>
       <c r="B363" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C363" s="2">
-        <v>0</v>
-      </c>
-      <c r="D363" s="3" t="s">
-        <v>1519</v>
+        <v>1</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>3741</v>
+      </c>
+      <c r="E363" s="2" t="s">
+        <v>3742</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B364" s="2">
         <v>43</v>
       </c>
       <c r="C364" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>1520</v>
+        <v>1513</v>
+      </c>
+      <c r="E364" s="2" t="s">
+        <v>1516</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B365" s="2">
         <v>43</v>
       </c>
       <c r="C365" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>1521</v>
+        <v>1514</v>
+      </c>
+      <c r="E365" s="2" t="s">
+        <v>1517</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -54714,13 +54745,13 @@
         <v>43</v>
       </c>
       <c r="C366" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>3747</v>
+        <v>3743</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>3748</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
@@ -54731,13 +54762,13 @@
         <v>43</v>
       </c>
       <c r="C367" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D367" s="3" t="s">
-        <v>1522</v>
+        <v>3745</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>3749</v>
+        <v>3746</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
@@ -54748,44 +54779,41 @@
         <v>43</v>
       </c>
       <c r="C368" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>3750</v>
+        <v>1515</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>3752</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B369" s="2">
         <v>43</v>
       </c>
       <c r="C369" s="2">
-        <v>4</v>
-      </c>
-      <c r="D369" s="2" t="s">
-        <v>3751</v>
-      </c>
-      <c r="E369" s="2" t="s">
-        <v>3753</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D369" s="3" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="B370" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C370" s="2">
-        <v>0</v>
-      </c>
-      <c r="D370" s="3" t="s">
-        <v>1523</v>
+        <v>1</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>1520</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
@@ -54796,24 +54824,27 @@
         <v>44</v>
       </c>
       <c r="C371" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>3754</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B372" s="2">
         <v>44</v>
       </c>
       <c r="C372" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>1524</v>
+        <v>3747</v>
+      </c>
+      <c r="E372" s="2" t="s">
+        <v>3748</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
@@ -54824,13 +54855,13 @@
         <v>44</v>
       </c>
       <c r="C373" s="2">
-        <v>1</v>
-      </c>
-      <c r="D373" s="2" t="s">
-        <v>3755</v>
+        <v>2</v>
+      </c>
+      <c r="D373" s="3" t="s">
+        <v>1522</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>3756</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
@@ -54841,13 +54872,13 @@
         <v>44</v>
       </c>
       <c r="C374" s="2">
-        <v>2</v>
-      </c>
-      <c r="D374" s="3" t="s">
-        <v>3757</v>
+        <v>3</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>3750</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>3758</v>
+        <v>3752</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
@@ -54858,44 +54889,41 @@
         <v>44</v>
       </c>
       <c r="C375" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>1525</v>
+        <v>3751</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3753</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B376" s="2">
         <v>44</v>
       </c>
       <c r="C376" s="2">
-        <v>4</v>
-      </c>
-      <c r="D376" s="2" t="s">
-        <v>1526</v>
-      </c>
-      <c r="E376" s="2" t="s">
-        <v>3813</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D376" s="3" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="B377" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C377" s="2">
-        <v>0</v>
-      </c>
-      <c r="D377" s="3" t="s">
-        <v>1528</v>
+        <v>1</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>3754</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
@@ -54906,24 +54934,27 @@
         <v>45</v>
       </c>
       <c r="C378" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>1529</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B379" s="2">
         <v>45</v>
       </c>
       <c r="C379" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>1530</v>
+        <v>3755</v>
+      </c>
+      <c r="E379" s="2" t="s">
+        <v>3756</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
@@ -54934,13 +54965,13 @@
         <v>45</v>
       </c>
       <c r="C380" s="2">
-        <v>1</v>
-      </c>
-      <c r="D380" s="2" t="s">
-        <v>3759</v>
+        <v>2</v>
+      </c>
+      <c r="D380" s="3" t="s">
+        <v>3757</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>3761</v>
+        <v>3758</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
@@ -54951,13 +54982,13 @@
         <v>45</v>
       </c>
       <c r="C381" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>3760</v>
+        <v>1525</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>3762</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
@@ -54968,106 +54999,106 @@
         <v>45</v>
       </c>
       <c r="C382" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>3763</v>
+        <v>1526</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>3764</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3813</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B383" s="2">
         <v>45</v>
       </c>
       <c r="C383" s="2">
-        <v>4</v>
-      </c>
-      <c r="D383" s="2" t="s">
-        <v>3765</v>
-      </c>
-      <c r="E383" s="2" t="s">
-        <v>3814</v>
+        <v>0</v>
+      </c>
+      <c r="D383" s="3" t="s">
+        <v>1528</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="B384" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C384" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>3766</v>
-      </c>
-      <c r="E384" s="2" t="s">
-        <v>3768</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="B385" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C385" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>3767</v>
-      </c>
-      <c r="E385" s="2" t="s">
-        <v>3769</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>4165</v>
+        <v>4163</v>
       </c>
       <c r="B386" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C386" s="2">
-        <v>0</v>
-      </c>
-      <c r="D386" s="3" t="s">
-        <v>1531</v>
+        <v>1</v>
+      </c>
+      <c r="D386" s="2" t="s">
+        <v>3759</v>
+      </c>
+      <c r="E386" s="2" t="s">
+        <v>3761</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B387" s="2">
         <v>46</v>
       </c>
       <c r="C387" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>1532</v>
+        <v>3760</v>
+      </c>
+      <c r="E387" s="2" t="s">
+        <v>3762</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B388" s="2">
         <v>46</v>
       </c>
       <c r="C388" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>1533</v>
+        <v>3763</v>
+      </c>
+      <c r="E388" s="2" t="s">
+        <v>3764</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
@@ -55078,13 +55109,13 @@
         <v>46</v>
       </c>
       <c r="C389" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>3770</v>
+        <v>3765</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>3774</v>
+        <v>3814</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
@@ -55095,13 +55126,13 @@
         <v>46</v>
       </c>
       <c r="C390" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>3771</v>
+        <v>3766</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>3775</v>
+        <v>3768</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
@@ -55112,44 +55143,41 @@
         <v>46</v>
       </c>
       <c r="C391" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>3772</v>
+        <v>3767</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>3776</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3769</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B392" s="2">
         <v>46</v>
       </c>
       <c r="C392" s="2">
-        <v>4</v>
-      </c>
-      <c r="D392" s="2" t="s">
-        <v>3773</v>
-      </c>
-      <c r="E392" s="2" t="s">
-        <v>3777</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D392" s="3" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="B393" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C393" s="2">
-        <v>0</v>
-      </c>
-      <c r="D393" s="3" t="s">
-        <v>1534</v>
+        <v>1</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>1532</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
@@ -55160,24 +55188,27 @@
         <v>47</v>
       </c>
       <c r="C394" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B395" s="2">
         <v>47</v>
       </c>
       <c r="C395" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>1536</v>
+        <v>3770</v>
+      </c>
+      <c r="E395" s="2" t="s">
+        <v>3774</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
@@ -55188,13 +55219,13 @@
         <v>47</v>
       </c>
       <c r="C396" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>3778</v>
+        <v>3771</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>3780</v>
+        <v>3775</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
@@ -55205,13 +55236,13 @@
         <v>47</v>
       </c>
       <c r="C397" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>3779</v>
+        <v>3772</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>3781</v>
+        <v>3776</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
@@ -55222,47 +55253,44 @@
         <v>47</v>
       </c>
       <c r="C398" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>1537</v>
+        <v>3773</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3777</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B399" s="2">
         <v>47</v>
       </c>
       <c r="C399" s="2">
-        <v>4</v>
-      </c>
-      <c r="D399" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="E399" s="2" t="s">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D399" s="3" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="B400" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C400" s="2">
-        <v>0</v>
-      </c>
-      <c r="D400" s="3" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D400" s="2" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>4164</v>
       </c>
@@ -55270,23 +55298,119 @@
         <v>48</v>
       </c>
       <c r="C401" s="2">
-        <v>1</v>
-      </c>
-      <c r="D401" s="5" t="s">
-        <v>3782</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D401" s="2" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>4165</v>
+        <v>4163</v>
       </c>
       <c r="B402" s="2">
         <v>48</v>
       </c>
       <c r="C402" s="2">
+        <v>1</v>
+      </c>
+      <c r="D402" s="2" t="s">
+        <v>3778</v>
+      </c>
+      <c r="E402" s="2" t="s">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A403" s="2" t="s">
+        <v>4163</v>
+      </c>
+      <c r="B403" s="2">
+        <v>48</v>
+      </c>
+      <c r="C403" s="2">
+        <v>2</v>
+      </c>
+      <c r="D403" s="2" t="s">
+        <v>3779</v>
+      </c>
+      <c r="E403" s="2" t="s">
+        <v>3781</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404" s="2" t="s">
+        <v>4163</v>
+      </c>
+      <c r="B404" s="2">
+        <v>48</v>
+      </c>
+      <c r="C404" s="2">
+        <v>3</v>
+      </c>
+      <c r="D404" s="2" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E404" s="2" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405" s="2" t="s">
+        <v>4163</v>
+      </c>
+      <c r="B405" s="2">
+        <v>48</v>
+      </c>
+      <c r="C405" s="2">
+        <v>4</v>
+      </c>
+      <c r="D405" s="2" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E405" s="2" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A406" s="2" t="s">
+        <v>4165</v>
+      </c>
+      <c r="B406" s="2">
+        <v>48</v>
+      </c>
+      <c r="C406" s="2">
         <v>0</v>
       </c>
-      <c r="D402" s="5" t="s">
+      <c r="D406" s="3" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A407" s="2" t="s">
+        <v>4164</v>
+      </c>
+      <c r="B407" s="2">
+        <v>49</v>
+      </c>
+      <c r="C407" s="2">
+        <v>1</v>
+      </c>
+      <c r="D407" s="5" t="s">
+        <v>3782</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A408" s="2" t="s">
+        <v>4165</v>
+      </c>
+      <c r="B408" s="2">
+        <v>49</v>
+      </c>
+      <c r="C408" s="2">
+        <v>0</v>
+      </c>
+      <c r="D408" s="5" t="s">
         <v>3783</v>
       </c>
     </row>
